--- a/va_facility_data_2025-02-20/Toledo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Toledo%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Toledo VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Toledo%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="R0a86313a98294407a6f5150602e63963"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Re3a34512959e462c9dfdadaa6dc780a9"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R16dbcb24b2a4402dab63c4727894b6d9"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R205e3b0246f64e10b1ed15399ff54fc0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R93953afe6d444cef82fea9ea4fdeec13"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rf2c288e5ffbd48ce8feb2ffb076491da"/>
   </x:sheets>
 </x:workbook>
 </file>
